--- a/Files/Vaccine_September 1, 2019.xlsx
+++ b/Files/Vaccine_September 1, 2019.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="292">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">10 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Quadracel</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">58160-0812-52</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">$79.15</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">$96.14</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">$33.53</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">$32.89</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -221,8 +221,7 @@
     <t xml:space="preserve">$104.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -237,8 +236,7 @@
     <t xml:space="preserve">$23.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -253,7 +251,7 @@
     <t xml:space="preserve">00006-4093-02</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -292,7 +290,7 @@
     <t xml:space="preserve">$10.85</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent [5]</t>
+    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil9</t>
@@ -307,7 +305,7 @@
     <t xml:space="preserve">$227.931</t>
   </si>
   <si>
-    <t xml:space="preserve">MENB - Meningococcal Group B [5]</t>
+    <t xml:space="preserve">MENB - Meningococcal Group B </t>
   </si>
   <si>
     <t xml:space="preserve">Trumenba</t>
@@ -340,7 +338,7 @@
     <t xml:space="preserve">$170.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -367,7 +365,7 @@
     <t xml:space="preserve">$130.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -382,7 +380,7 @@
     <t xml:space="preserve">$78.678</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -397,8 +395,7 @@
     <t xml:space="preserve">$224.937</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13 TM</t>
@@ -428,7 +425,7 @@
     <t xml:space="preserve">$105.194</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -455,7 +452,7 @@
     <t xml:space="preserve">$84.531</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -470,7 +467,7 @@
     <t xml:space="preserve">$120.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -506,7 +503,7 @@
     <t xml:space="preserve">75D30119D04512</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -542,7 +539,7 @@
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -557,7 +554,7 @@
     <t xml:space="preserve">$135.725</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -584,13 +581,13 @@
     <t xml:space="preserve">75D30119D05108</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$61.858</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">Heplisav-B</t>
@@ -629,13 +626,13 @@
     <t xml:space="preserve">$33.515</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent </t>
   </si>
   <si>
     <t xml:space="preserve">$144.99</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella </t>
   </si>
   <si>
     <t xml:space="preserve">$49.536</t>
@@ -662,8 +659,7 @@
     <t xml:space="preserve">$103.938</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5]</t>
+    <t xml:space="preserve">Pneumococcal 13-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -717,12 +713,10 @@
     <t xml:space="preserve">$102.316</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0631-15</t>
@@ -737,13 +731,10 @@
     <t xml:space="preserve">75D30119D03769</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-Pediatric dose</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent Pediatric dose</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0519-25</t>
@@ -764,8 +755,7 @@
     <t xml:space="preserve">49281-0419-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent</t>
+    <t xml:space="preserve">Fluarix Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0896-52</t>
@@ -783,8 +773,7 @@
     <t xml:space="preserve">75D30119D03767</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0897-11</t>
@@ -796,8 +785,7 @@
     <t xml:space="preserve">19515-0906-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Flucelvax Quadrivalent</t>
@@ -827,8 +815,7 @@
     <t xml:space="preserve">$22.758</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 -35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6 -35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria Quadrivalent</t>
@@ -840,8 +827,7 @@
     <t xml:space="preserve">$17.22</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0319-01</t>
@@ -856,12 +842,10 @@
     <t xml:space="preserve">$15.871</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0306-10</t>
@@ -901,10 +885,6 @@
   </si>
   <si>
     <t xml:space="preserve">75D30119D03772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">$12.13</t>
@@ -3590,7 +3570,7 @@
         <v>270</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
         <v>271</v>
@@ -3599,7 +3579,7 @@
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s">
         <v>269</v>
@@ -3619,7 +3599,7 @@
         <v>232</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
         <v>272</v>
@@ -3628,7 +3608,7 @@
         <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
         <v>274</v>
